--- a/lags_groups.xlsx
+++ b/lags_groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb95c88c36af6133/Documents/GitHub/NBA-Centralization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{AC77D203-6015-4A95-9F7F-5FDD6BBBC303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C11A3790-A2D4-46BC-AE15-994E0D8B6FDF}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{AC77D203-6015-4A95-9F7F-5FDD6BBBC303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E25C2107-CC3F-457A-B3FB-05C9500F1401}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1007" windowWidth="12000" windowHeight="12326" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,10 +162,10 @@
     <t>2017-2018</t>
   </si>
   <si>
-    <t>lag _5</t>
-  </si>
-  <si>
-    <t>lag _10</t>
+    <t>lag_10</t>
+  </si>
+  <si>
+    <t>lag_5</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -454,10 +454,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
